--- a/data/facts_centralidad.xlsx
+++ b/data/facts_centralidad.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MINERALES" sheetId="1" r:id="rId1"/>
     <sheet name="ACCIDENTES" sheetId="2" r:id="rId2"/>
+    <sheet name="Armonica" sheetId="3" r:id="rId3"/>
+    <sheet name="Geometrica" sheetId="4" r:id="rId4"/>
+    <sheet name="Cuadratica" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -363,15 +366,113 @@
   <si>
     <t>Media</t>
   </si>
+  <si>
+    <t>velocidad</t>
+  </si>
+  <si>
+    <t>distancia_dia1</t>
+  </si>
+  <si>
+    <t>distancia_dia2</t>
+  </si>
+  <si>
+    <t>servicio</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>errorCajero</t>
+  </si>
+  <si>
+    <t>si distancia es la misma:</t>
+  </si>
+  <si>
+    <t>Marmonica:</t>
+  </si>
+  <si>
+    <t>sino es la misma distancia</t>
+  </si>
+  <si>
+    <t>suma de pesos</t>
+  </si>
+  <si>
+    <t>suma de peso/velo</t>
+  </si>
+  <si>
+    <t>peso/velo</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t>meanG</t>
+  </si>
+  <si>
+    <t>mejor servicio?</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>error promedio en caja</t>
+  </si>
+  <si>
+    <t>suma de cuadrados</t>
+  </si>
+  <si>
+    <t>promedio de A</t>
+  </si>
+  <si>
+    <t>raiz de B</t>
+  </si>
+  <si>
+    <t>cliente1</t>
+  </si>
+  <si>
+    <t>cliente2</t>
+  </si>
+  <si>
+    <t>cliente3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -454,6 +555,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -557,7 +673,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -632,6 +748,17 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -967,7 +1094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O4:Q8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1963,7 +2090,7 @@
   </sheetPr>
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
     </sheetView>
@@ -21875,4 +22002,799 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="41">
+        <v>55</v>
+      </c>
+      <c r="B2" s="41">
+        <v>200</v>
+      </c>
+      <c r="C2" s="41">
+        <v>230</v>
+      </c>
+      <c r="E2">
+        <f>C2/A2</f>
+        <v>4.1818181818181817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
+        <v>60</v>
+      </c>
+      <c r="B3" s="41">
+        <v>200</v>
+      </c>
+      <c r="C3" s="41">
+        <v>180</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3/A3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>80</v>
+      </c>
+      <c r="B4" s="41">
+        <v>200</v>
+      </c>
+      <c r="C4" s="41">
+        <v>190</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>55</v>
+      </c>
+      <c r="B5" s="41">
+        <v>200</v>
+      </c>
+      <c r="C5" s="41">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.6363636363636362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>60</v>
+      </c>
+      <c r="B6" s="41">
+        <v>200</v>
+      </c>
+      <c r="C6" s="41">
+        <v>210</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="41">
+        <v>12</v>
+      </c>
+      <c r="B7" s="41">
+        <v>200</v>
+      </c>
+      <c r="C7" s="41">
+        <v>220</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="41">
+        <v>55</v>
+      </c>
+      <c r="B8" s="41">
+        <v>200</v>
+      </c>
+      <c r="C8" s="41">
+        <v>230</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.1818181818181817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
+        <v>60</v>
+      </c>
+      <c r="B9" s="41">
+        <v>200</v>
+      </c>
+      <c r="C9" s="41">
+        <v>180</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="41">
+        <v>80</v>
+      </c>
+      <c r="B10" s="41">
+        <v>200</v>
+      </c>
+      <c r="C10" s="41">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
+        <v>55</v>
+      </c>
+      <c r="B11" s="41">
+        <v>200</v>
+      </c>
+      <c r="C11" s="41">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.6363636363636362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
+        <v>60</v>
+      </c>
+      <c r="B12" s="41">
+        <v>200</v>
+      </c>
+      <c r="C12" s="41">
+        <v>210</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41">
+        <v>200</v>
+      </c>
+      <c r="C13" s="41">
+        <v>220</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="42">
+        <f>HARMEAN(A2:A13)</f>
+        <v>36.247139588100687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C2:C13)</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22">
+        <f>SUM(E2:E13)</f>
+        <v>70.053030303030297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23">
+        <f>C21/C22</f>
+        <v>35.116253920190331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="40">
+        <v>3</v>
+      </c>
+      <c r="C2" s="40">
+        <v>70</v>
+      </c>
+      <c r="D2" s="40">
+        <v>13</v>
+      </c>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="40">
+        <v>4</v>
+      </c>
+      <c r="C3" s="40">
+        <v>65</v>
+      </c>
+      <c r="D3" s="40">
+        <v>15</v>
+      </c>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="40">
+        <v>3</v>
+      </c>
+      <c r="C4" s="40">
+        <v>80</v>
+      </c>
+      <c r="D4" s="40">
+        <v>16</v>
+      </c>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="40">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40">
+        <v>65</v>
+      </c>
+      <c r="D5" s="40">
+        <v>14</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="40">
+        <v>5</v>
+      </c>
+      <c r="C6" s="40">
+        <v>66</v>
+      </c>
+      <c r="D6" s="40">
+        <v>18</v>
+      </c>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="40">
+        <v>4</v>
+      </c>
+      <c r="C7" s="40">
+        <v>77</v>
+      </c>
+      <c r="D7" s="40">
+        <v>17</v>
+      </c>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="40">
+        <v>2</v>
+      </c>
+      <c r="C8" s="40">
+        <v>55</v>
+      </c>
+      <c r="D8" s="40">
+        <v>15</v>
+      </c>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="40">
+        <v>3</v>
+      </c>
+      <c r="C9" s="40">
+        <v>58</v>
+      </c>
+      <c r="D9" s="40">
+        <v>14</v>
+      </c>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="40">
+        <v>3</v>
+      </c>
+      <c r="C10" s="40">
+        <v>67</v>
+      </c>
+      <c r="D10" s="40">
+        <v>20</v>
+      </c>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="40">
+        <v>4</v>
+      </c>
+      <c r="C11" s="40">
+        <v>90</v>
+      </c>
+      <c r="D11" s="40">
+        <v>12</v>
+      </c>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <f>GEOMEAN(B2:D2)</f>
+        <v>13.976149868636849</v>
+      </c>
+      <c r="C18" s="40">
+        <f>RANK(B18,$B$18:$B$27,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <f>GEOMEAN(B3:D3)</f>
+        <v>15.740609166314433</v>
+      </c>
+      <c r="C19" s="40">
+        <f t="shared" ref="C19:C27" si="0">RANK(B19,$B$18:$B$27,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20">
+        <f>GEOMEAN(B4:D4)</f>
+        <v>15.659470564675454</v>
+      </c>
+      <c r="C20" s="40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21">
+        <f>GEOMEAN(B5:D5)</f>
+        <v>16.570557963434691</v>
+      </c>
+      <c r="C21" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <f>GEOMEAN(B6:D6)</f>
+        <v>18.110432210393057</v>
+      </c>
+      <c r="C22" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23">
+        <f>GEOMEAN(B7:D7)</f>
+        <v>17.364670464290089</v>
+      </c>
+      <c r="C23" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24">
+        <f>GEOMEAN(B8:D8)</f>
+        <v>11.816657504675012</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25">
+        <f>GEOMEAN(B9:D9)</f>
+        <v>13.455270341890772</v>
+      </c>
+      <c r="C25" s="40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <f>GEOMEAN(B10:D10)</f>
+        <v>15.900423231485656</v>
+      </c>
+      <c r="C26" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <f>GEOMEAN(B11:D11)</f>
+        <v>16.286505699569439</v>
+      </c>
+      <c r="C27" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="40">
+        <v>-24</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2">
+        <f>SUMSQ(A2:A25)</f>
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="40">
+        <v>-70</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="46">
+        <f>E2/COUNTA(A2:A25)</f>
+        <v>1755.2083333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="40">
+        <v>-17</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="46">
+        <f>SQRT(E3)</f>
+        <v>41.895206567498072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="40">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="40">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="40">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/facts_centralidad.xlsx
+++ b/data/facts_centralidad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MINERALES" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="145">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -448,9 +448,6 @@
     <t>suma de cuadrados</t>
   </si>
   <si>
-    <t>promedio de A</t>
-  </si>
-  <si>
     <t>raiz de B</t>
   </si>
   <si>
@@ -462,6 +459,18 @@
   <si>
     <t>cliente3</t>
   </si>
+  <si>
+    <t>con numeros es trivial</t>
+  </si>
+  <si>
+    <t>&lt;----</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A/N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
@@ -469,10 +478,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -569,6 +578,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -673,7 +688,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -750,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -758,7 +773,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1028,7 +1047,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1094,7 +1113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O4:Q8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1417,7 +1436,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2092,7 +2111,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3708,6 +3727,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="7"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="7"/>
       <c r="O36" s="28"/>
       <c r="P36" s="7"/>
@@ -3731,7 +3751,12 @@
         <f>MEDIAN(K2:K34)</f>
         <v>8</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="N37" s="7"/>
       <c r="O37" s="28"/>
       <c r="P37" s="7"/>
@@ -3756,6 +3781,7 @@
         <v>10.757575757575758</v>
       </c>
       <c r="L38" s="7"/>
+      <c r="M38" s="47"/>
       <c r="N38" s="7"/>
       <c r="O38" s="24"/>
       <c r="P38" s="7"/>
@@ -22009,7 +22035,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22273,8 +22299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22288,13 +22314,13 @@
         <v>113</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>140</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>141</v>
       </c>
       <c r="E1" s="40"/>
     </row>
@@ -22472,7 +22498,7 @@
         <v>114</v>
       </c>
       <c r="B18">
-        <f>GEOMEAN(B2:D2)</f>
+        <f t="shared" ref="B18:B27" si="0">GEOMEAN(B2:D2)</f>
         <v>13.976149868636849</v>
       </c>
       <c r="C18" s="40">
@@ -22487,11 +22513,11 @@
         <v>115</v>
       </c>
       <c r="B19">
-        <f>GEOMEAN(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>15.740609166314433</v>
       </c>
       <c r="C19" s="40">
-        <f t="shared" ref="C19:C27" si="0">RANK(B19,$B$18:$B$27,0)</f>
+        <f t="shared" ref="C19:C27" si="1">RANK(B19,$B$18:$B$27,0)</f>
         <v>6</v>
       </c>
       <c r="D19" s="40"/>
@@ -22502,11 +22528,11 @@
         <v>116</v>
       </c>
       <c r="B20">
-        <f>GEOMEAN(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>15.659470564675454</v>
       </c>
       <c r="C20" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D20" s="40"/>
@@ -22517,11 +22543,11 @@
         <v>117</v>
       </c>
       <c r="B21">
-        <f>GEOMEAN(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>16.570557963434691</v>
       </c>
       <c r="C21" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D21" s="40"/>
@@ -22532,11 +22558,11 @@
         <v>118</v>
       </c>
       <c r="B22">
-        <f>GEOMEAN(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>18.110432210393057</v>
       </c>
       <c r="C22" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D22" s="40"/>
@@ -22547,11 +22573,11 @@
         <v>119</v>
       </c>
       <c r="B23">
-        <f>GEOMEAN(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>17.364670464290089</v>
       </c>
       <c r="C23" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D23" s="40"/>
@@ -22562,11 +22588,11 @@
         <v>120</v>
       </c>
       <c r="B24">
-        <f>GEOMEAN(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>11.816657504675012</v>
       </c>
       <c r="C24" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D24" s="40"/>
@@ -22577,11 +22603,11 @@
         <v>121</v>
       </c>
       <c r="B25">
-        <f>GEOMEAN(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>13.455270341890772</v>
       </c>
       <c r="C25" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D25" s="40"/>
@@ -22592,11 +22618,11 @@
         <v>122</v>
       </c>
       <c r="B26">
-        <f>GEOMEAN(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>15.900423231485656</v>
       </c>
       <c r="C26" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D26" s="40"/>
@@ -22607,11 +22633,11 @@
         <v>123</v>
       </c>
       <c r="B27">
-        <f>GEOMEAN(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>16.286505699569439</v>
       </c>
       <c r="C27" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D27" s="40"/>
@@ -22626,8 +22652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -22651,7 +22677,7 @@
       <c r="C2" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="48" t="s">
         <v>136</v>
       </c>
       <c r="E2">
@@ -22666,12 +22692,12 @@
       <c r="C3" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="46">
-        <f>E2/COUNTA(A2:A25)</f>
-        <v>1755.2083333333333</v>
+      <c r="D3" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3">
+        <f>COUNTA(A2:A25)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -22681,17 +22707,27 @@
       <c r="C4" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
-        <v>138</v>
+      <c r="D4" s="48" t="s">
+        <v>143</v>
       </c>
       <c r="E4" s="46">
-        <f>SQRT(E3)</f>
-        <v>41.895206567498072</v>
+        <f>E2/E3</f>
+        <v>1755.2083333333333</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
         <v>50</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="46">
+        <f>SQRT(E4)</f>
+        <v>41.895206567498072</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
